--- a/resources/type_map.xlsx
+++ b/resources/type_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/Documents/GitHub/processSanskrit/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F12EBD3-77AE-6B4F-8A7E-A1A2A39BDA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA97229A-CF74-6B43-ABB4-52E8E8CE67D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="394">
   <si>
     <t>abbr</t>
   </si>
@@ -1196,13 +1196,19 @@
   </si>
   <si>
     <t>perfect , middle voice</t>
+  </si>
+  <si>
+    <t>f_1_t</t>
+  </si>
+  <si>
+    <t>n_1_t</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1217,6 +1223,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF495057"/>
+      <name val="Palatino"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1254,11 +1266,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1563,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B196"/>
+  <dimension ref="A1:B198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3139,6 +3152,22 @@
         <v>391</v>
       </c>
     </row>
+    <row r="197" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>393</v>
+      </c>
+      <c r="B198" t="s">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/type_map.xlsx
+++ b/resources/type_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/Documents/GitHub/processSanskrit/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/Documents/GitHub/processSanskritRefactored/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA97229A-CF74-6B43-ABB4-52E8E8CE67D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9C4FD5-F330-374E-9D71-03E50C2B91CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="398">
   <si>
     <t>abbr</t>
   </si>
@@ -685,9 +685,6 @@
     <t>feminine noun/adjective ending in z</t>
   </si>
   <si>
-    <t>indeclineable</t>
-  </si>
-  <si>
     <t>masculine noun/adjective ending in A</t>
   </si>
   <si>
@@ -1180,28 +1177,43 @@
     <t>present of class 9 verb, middle voice</t>
   </si>
   <si>
-    <t>present of causal, active voice</t>
-  </si>
-  <si>
-    <t>present of causal, middle voice</t>
-  </si>
-  <si>
-    <t>present of causal, passive voice</t>
-  </si>
-  <si>
-    <t>present , passive voice</t>
-  </si>
-  <si>
-    <t>perfect , active voice</t>
-  </si>
-  <si>
-    <t>perfect , middle voice</t>
-  </si>
-  <si>
     <t>f_1_t</t>
   </si>
   <si>
     <t>n_1_t</t>
+  </si>
+  <si>
+    <t>n_as</t>
+  </si>
+  <si>
+    <t>neuter noun/adjective ending in as</t>
+  </si>
+  <si>
+    <t>indeclinable</t>
+  </si>
+  <si>
+    <t>present of causative verb, active voice</t>
+  </si>
+  <si>
+    <t>present of causative verb, middle voice</t>
+  </si>
+  <si>
+    <t>present of causative verb, passive voice</t>
+  </si>
+  <si>
+    <t>present verb , passive voice</t>
+  </si>
+  <si>
+    <t>perfect verb , active voice</t>
+  </si>
+  <si>
+    <t>perfect  verb, middle voice</t>
+  </si>
+  <si>
+    <t>n_1_p</t>
+  </si>
+  <si>
+    <t>noun/adjective ending in p</t>
   </si>
 </sst>
 </file>
@@ -1576,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B198"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="E182" sqref="E182"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="138" workbookViewId="0">
+      <selection activeCell="F201" sqref="F201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1789,7 +1801,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1797,7 +1809,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1805,7 +1817,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1813,7 +1825,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1821,7 +1833,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1829,7 +1841,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1837,7 +1849,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1845,7 +1857,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1853,7 +1865,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1861,7 +1873,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1869,7 +1881,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1877,7 +1889,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1885,7 +1897,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1893,7 +1905,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1901,7 +1913,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1909,7 +1921,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1917,7 +1929,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1925,7 +1937,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1933,7 +1945,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1941,7 +1953,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1949,7 +1961,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1957,7 +1969,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1965,7 +1977,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1973,7 +1985,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1981,7 +1993,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1989,7 +2001,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1997,7 +2009,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -2005,7 +2017,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -2013,7 +2025,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -2021,7 +2033,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -2029,7 +2041,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -2037,7 +2049,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -2045,7 +2057,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -2053,7 +2065,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -2061,7 +2073,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -2069,7 +2081,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -2077,7 +2089,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -2085,7 +2097,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -2093,7 +2105,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -2101,7 +2113,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -2109,7 +2121,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -2117,7 +2129,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -2125,7 +2137,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -2133,7 +2145,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -2141,7 +2153,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -2149,7 +2161,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -2157,7 +2169,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -2165,7 +2177,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -2173,7 +2185,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -2181,7 +2193,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -2189,7 +2201,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -2197,7 +2209,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -2205,7 +2217,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -2213,7 +2225,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -2221,7 +2233,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -2229,7 +2241,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -2237,7 +2249,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -2245,7 +2257,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -2253,7 +2265,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -2261,7 +2273,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -2269,7 +2281,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -2277,7 +2289,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -2285,7 +2297,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -2293,7 +2305,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -2301,7 +2313,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -2309,7 +2321,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -2317,7 +2329,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -2325,7 +2337,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -2333,7 +2345,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -2341,7 +2353,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -2349,7 +2361,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -2357,7 +2369,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -2365,7 +2377,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -2373,7 +2385,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -2381,7 +2393,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -2389,7 +2401,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -2397,7 +2409,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -2405,7 +2417,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -2413,7 +2425,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -2421,7 +2433,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -2429,7 +2441,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -2437,7 +2449,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -2445,7 +2457,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -2453,7 +2465,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -2461,7 +2473,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -2469,7 +2481,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -2477,7 +2489,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -2485,7 +2497,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -2493,7 +2505,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -2501,7 +2513,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -2509,7 +2521,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -2517,7 +2529,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -2525,7 +2537,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -2533,7 +2545,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -2541,7 +2553,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -2549,7 +2561,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -2557,7 +2569,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -2565,7 +2577,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -2573,7 +2585,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -2581,7 +2593,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -2589,7 +2601,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -2597,7 +2609,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -2605,7 +2617,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -2613,7 +2625,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -2621,7 +2633,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -2629,7 +2641,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -2637,7 +2649,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -2645,7 +2657,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -2653,7 +2665,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -2661,7 +2673,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -2669,7 +2681,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -2677,7 +2689,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -2685,7 +2697,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -2693,7 +2705,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -2701,7 +2713,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -2709,7 +2721,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -2717,7 +2729,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2725,7 +2737,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -2733,7 +2745,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -2741,7 +2753,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -2749,7 +2761,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -2757,7 +2769,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -2765,7 +2777,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -2773,7 +2785,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -2781,7 +2793,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -2789,7 +2801,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -2797,7 +2809,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -2805,7 +2817,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -2813,7 +2825,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -2821,7 +2833,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -2829,7 +2841,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -2837,7 +2849,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -2845,7 +2857,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -2853,7 +2865,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -2861,7 +2873,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -2869,7 +2881,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -2877,7 +2889,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -2885,7 +2897,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -2893,7 +2905,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -2901,7 +2913,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -2909,7 +2921,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -2917,7 +2929,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -2925,7 +2937,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -2933,7 +2945,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -2941,7 +2953,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -2949,7 +2961,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -2957,7 +2969,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -2965,7 +2977,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -2973,7 +2985,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -2981,7 +2993,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -2989,7 +3001,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -2997,7 +3009,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -3005,7 +3017,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -3013,7 +3025,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -3021,7 +3033,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -3029,7 +3041,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -3037,7 +3049,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -3045,7 +3057,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -3053,7 +3065,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -3061,7 +3073,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -3069,7 +3081,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -3077,7 +3089,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -3085,7 +3097,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -3093,7 +3105,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -3101,7 +3113,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -3109,7 +3121,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -3117,7 +3129,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -3125,7 +3137,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -3133,7 +3145,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -3141,7 +3153,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -3149,12 +3161,12 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>216</v>
@@ -3162,10 +3174,26 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B198" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B199" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B200" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
